--- a/public/Test.xlsx
+++ b/public/Test.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Produccion" sheetId="1" r:id="rId4"/>
+    <sheet name="Consumo" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,9 +16,525 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
-  <si>
-    <t>Hola</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+  <si>
+    <t>Produccion diaria de PADS y pozos</t>
+  </si>
+  <si>
+    <t>01/12/2019</t>
+  </si>
+  <si>
+    <t>ARAUCANO_ZG-1A</t>
+  </si>
+  <si>
+    <t>ARAUCANO_ZG-1B</t>
+  </si>
+  <si>
+    <t>ARAUCANO_ZG-1C</t>
+  </si>
+  <si>
+    <t>ARAUCANO_ZG-1D</t>
+  </si>
+  <si>
+    <t>ARAUCANO_ZG-1F</t>
+  </si>
+  <si>
+    <t>ARAUCANO_ZG-1G</t>
+  </si>
+  <si>
+    <t>ARAUCANO_ZG-1H</t>
+  </si>
+  <si>
+    <t>ARAUCANO_ZG-1I</t>
+  </si>
+  <si>
+    <t>BARWICK_ZG-1</t>
+  </si>
+  <si>
+    <t>CABANA_ESTE_ZG-1A</t>
+  </si>
+  <si>
+    <t>CABANA_ESTE_ZG-1B</t>
+  </si>
+  <si>
+    <t>CABANA_ESTE_ZG-1D</t>
+  </si>
+  <si>
+    <t>CABANA_ESTE_ZG-1E</t>
+  </si>
+  <si>
+    <t>CABANA_ESTE_ZG-1F</t>
+  </si>
+  <si>
+    <t>CABANA_ESTE_ZG-1G</t>
+  </si>
+  <si>
+    <t>CABANA_ESTE_ZG-2</t>
+  </si>
+  <si>
+    <t>CABANA_ESTE_ZG-2A</t>
+  </si>
+  <si>
+    <t>CABANA_ESTE_ZG-2B</t>
+  </si>
+  <si>
+    <t>CABANA_ESTE_ZG-2E</t>
+  </si>
+  <si>
+    <t>CABANA_NORTE_ZG-1</t>
+  </si>
+  <si>
+    <t>CABANA_NORTE_ZG-1A</t>
+  </si>
+  <si>
+    <t>CABANA_NORTE_ZG-1B</t>
+  </si>
+  <si>
+    <t>CABANA_NORTE_ZG-1C</t>
+  </si>
+  <si>
+    <t>CABANA_NORTE_ZG-1D</t>
+  </si>
+  <si>
+    <t>CABANA_NORTE_ZG-1E</t>
+  </si>
+  <si>
+    <t>CABANA_NORTE_ZG-1F</t>
+  </si>
+  <si>
+    <t>CABANA_NORTE-1</t>
+  </si>
+  <si>
+    <t>CABANA_NORTE-1AA</t>
+  </si>
+  <si>
+    <t>CABANA_NORTE-1D</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-3</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-3A</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-3B</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-3C</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-3D</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-3E</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-4</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-4A</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-4B</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-4C</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-4D</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-4F</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-4G</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-4H</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-5B</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-5C</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-5D</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE-1</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE-1A</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE-1B</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE-1C</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE-1D</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE-1E</t>
+  </si>
+  <si>
+    <t>CABANA_SUR_ZG-3</t>
+  </si>
+  <si>
+    <t>CABANA_SUR_ZG-3A</t>
+  </si>
+  <si>
+    <t>CABANA_SUR_ZG-3B</t>
+  </si>
+  <si>
+    <t>CABANA_SUR_ZG-3C</t>
+  </si>
+  <si>
+    <t>CABANA_SUR_ZG-3D</t>
+  </si>
+  <si>
+    <t>CABANA_SUR_ZG-4</t>
+  </si>
+  <si>
+    <t>CABANA_SUR_ZG-4A</t>
+  </si>
+  <si>
+    <t>CABANA_SUR_ZG-4B</t>
+  </si>
+  <si>
+    <t>CABANA_SUR_ZG-4C</t>
+  </si>
+  <si>
+    <t>CABANA_SUR_ZG-4D</t>
+  </si>
+  <si>
+    <t>CABANA_SUR_ZG-4E</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-1</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-2A</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-2B</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-2C</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-3</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-4</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-4A</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-4B</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-4C</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-4D</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-4E</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-4F</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-4G</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-5</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-5B</t>
+  </si>
+  <si>
+    <t>CABANA_ZG-5C</t>
+  </si>
+  <si>
+    <t>CABANA-1</t>
+  </si>
+  <si>
+    <t>CABANA-1A</t>
+  </si>
+  <si>
+    <t>CABANA-1B</t>
+  </si>
+  <si>
+    <t>CABANA-1C</t>
+  </si>
+  <si>
+    <t>CABANA-1D</t>
+  </si>
+  <si>
+    <t>CABANA-1E</t>
+  </si>
+  <si>
+    <t>CABANA-1F</t>
+  </si>
+  <si>
+    <t>CABANA-2</t>
+  </si>
+  <si>
+    <t>CARANCHO_ZG-1B</t>
+  </si>
+  <si>
+    <t>CARANCHO_ZG-1C</t>
+  </si>
+  <si>
+    <t>CARANCHO_ZG-1D</t>
+  </si>
+  <si>
+    <t>CARMELITAS-2</t>
+  </si>
+  <si>
+    <t>CHANARCILLO-4</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-1</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-1A</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-1B</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-1C</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-1D</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-1E</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-1F</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-1G</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-2</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-2A</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-2B</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-2C</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-2D</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-2E</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-2F</t>
+  </si>
+  <si>
+    <t>CORTADO_CREEK_ZG-2G</t>
+  </si>
+  <si>
+    <t>ESTANCIA_RITA_ZG-1</t>
+  </si>
+  <si>
+    <t>ESTANCIA_RITA_ZG-1A</t>
+  </si>
+  <si>
+    <t>ESTANCIA_RITA_ZG-1B</t>
+  </si>
+  <si>
+    <t>ESTANCIA_RITA_ZG-1C</t>
+  </si>
+  <si>
+    <t>ESTANCIA_RITA_ZG-1D</t>
+  </si>
+  <si>
+    <t>ESTANCIA_RITA_ZG-1E</t>
+  </si>
+  <si>
+    <t>ESTANCIA_RITA_ZG-1F</t>
+  </si>
+  <si>
+    <t>LAUTARO-13</t>
+  </si>
+  <si>
+    <t>LAUTARO-14</t>
+  </si>
+  <si>
+    <t>PROGRESO_ZG-1</t>
+  </si>
+  <si>
+    <t>PUNTA_BAJA-14</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-1</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-1A</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-1B</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-1C</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-1D</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-2A</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-2B</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-2D</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-2E</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-2F</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-2G</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-2H</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE_ZG-2I</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_OESTE-1</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_SUR_ZG-1</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_SUR_ZG-1A</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_SUR_ZG-1B</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_SUR_ZG-1C</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_SUR_ZG-1D</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_SUR_ZG-1E</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_ZG-1</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_ZG-1A</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_ZG-1B</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_ZG-1C</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_ZG-1D</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_ZG-1E</t>
+  </si>
+  <si>
+    <t>PUNTA_PIEDRA_ZG-1F</t>
+  </si>
+  <si>
+    <t>RETAMOS_ZG-1</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-3</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-3A</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-3B</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-3C</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-3D</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-4</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-4A</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-4B</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-4C</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-4D</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-4E</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-4F</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-4G</t>
+  </si>
+  <si>
+    <t>RIO_DEL_ORO_ZG-4H</t>
+  </si>
+  <si>
+    <t>VICTORIA_OESTE-14</t>
+  </si>
+  <si>
+    <t>VICTORIA_SUR-2</t>
+  </si>
+  <si>
+    <t>VICTORIA_SUR-7</t>
+  </si>
+  <si>
+    <t>Consumo de PADS</t>
+  </si>
+  <si>
+    <t>ARAUCANO_ZG-1</t>
+  </si>
+  <si>
+    <t>ARAUCANO-1</t>
+  </si>
+  <si>
+    <t>CABANA_ESTE_ZG-1</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-1</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE_ZG-2</t>
+  </si>
+  <si>
+    <t>CABANA_OESTE-2</t>
   </si>
 </sst>
 </file>
@@ -25,7 +542,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -35,8 +552,26 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -46,15 +581,111 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="76933C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C4D79B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D8E4BC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E26B0A"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FABF8F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCD5B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -356,21 +987,1465 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.5" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="0" customFormat="1">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7850.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8010.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9150.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>13690.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7900.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7490.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7160.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8330.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6610.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>10170.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>21240.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <v>12790.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8390.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>10050.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <v>19740.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <v>34590.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>21620.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>24340.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8860.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4">
+        <v>9610.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4">
+        <v>18540.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <v>18470.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6380.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4">
+        <v>21760.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <v>24900.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4">
+        <v>20140.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4">
+        <v>6820.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4">
+        <v>6060.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <v>10780.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <v>7600.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <v>12580.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>16890.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4">
+        <v>38210.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4">
+        <v>6360.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4">
+        <v>10220.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4">
+        <v>14950.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4">
+        <v>12850.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4">
+        <v>11450.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4">
+        <v>6890.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4">
+        <v>7760.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4">
+        <v>12490.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="4">
+        <v>14840.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="4">
+        <v>13530.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="4">
+        <v>21300.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="4">
+        <v>16970.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="4">
+        <v>25070.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="4">
+        <v>5830.0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4">
+        <v>14570.0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="4">
+        <v>27310.0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="4">
+        <v>7150.0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="4">
+        <v>8000.0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="4">
+        <v>4550.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="4">
+        <v>6240.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="4">
+        <v>7570.0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="4">
+        <v>8600.0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="4">
+        <v>8290.0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="4">
+        <v>7810.0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="4">
+        <v>10060.0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="4">
+        <v>7580.0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="4">
+        <v>6460.0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="4">
+        <v>17090.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="4">
+        <v>9860.0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="4">
+        <v>9220.0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="4">
+        <v>9620.0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="4">
+        <v>13520.0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="4">
+        <v>9840.0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="4">
+        <v>10160.0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="4">
+        <v>10730.0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="4">
+        <v>8670.0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="4">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="4">
+        <v>6860.0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="4">
+        <v>8270.0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="4">
+        <v>11760.0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="4">
+        <v>13420.0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="B80" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="4">
+        <v>10550.0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="B81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="4">
+        <v>10120.0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="B82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="4">
+        <v>7670.0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="B83" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="4">
+        <v>17580.0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="B84" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="4">
+        <v>22090.0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="B85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="4">
+        <v>25470.0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="4">
+        <v>26100.0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="B87" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="4">
+        <v>11850.0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="B88" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="4">
+        <v>16080.0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="4">
+        <v>7670.0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="4">
+        <v>8620.0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="4">
+        <v>23180.0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="4">
+        <v>35420.0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="4">
+        <v>14160.0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="4">
+        <v>11250.0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="4">
+        <v>2560.0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="B97" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="4">
+        <v>9390.0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="4">
+        <v>19270.0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="4">
+        <v>19330.0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="4">
+        <v>11450.0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="4">
+        <v>10960.0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="B102" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="4">
+        <v>15450.0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" s="4">
+        <v>38700.0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="B104" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" s="4">
+        <v>47500.0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="B105" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" s="4">
+        <v>51050.0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" s="4">
+        <v>31190.0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="B107" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="4">
+        <v>38390.0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="4">
+        <v>26430.0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" s="4">
+        <v>56460.0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="B110" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C110" s="4">
+        <v>51700.0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="B111" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="4">
+        <v>23720.0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="B112" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="4">
+        <v>9880.0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="B113" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="4">
+        <v>17260.0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="B114" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="4">
+        <v>15750.0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="B115" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="4">
+        <v>24910.0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="4">
+        <v>18080.0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" s="4">
+        <v>11090.0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="B118" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="B119" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="B120" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="B121" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="B122" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" s="4">
+        <v>8960.0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="B123" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" s="4">
+        <v>7360.0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="B124" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="4">
+        <v>43830.0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="B125" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125" s="4">
+        <v>30420.0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="B126" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" s="4">
+        <v>12860.0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="B127" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127" s="4">
+        <v>58300.0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="B128" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="4">
+        <v>64460.0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="B129" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" s="4">
+        <v>45960.0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="B130" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" s="4">
+        <v>52670.0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="B131" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="4">
+        <v>28950.0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="B132" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C132" s="4">
+        <v>44470.0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="B133" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133" s="4">
+        <v>41230.0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="B134" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C134" s="4">
+        <v>21850.0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="B135" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C135" s="4">
+        <v>13980.0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="B136" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="4">
+        <v>8200.0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="B137" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137" s="4">
+        <v>12090.0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="B138" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C138" s="4">
+        <v>11820.0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="B139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C139" s="4">
+        <v>3500.0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="B140" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C140" s="4">
+        <v>10040.0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="B141" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" s="4">
+        <v>9700.0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="B142" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C142" s="4">
+        <v>10820.0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="B143" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C143" s="4">
+        <v>12470.0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="B144" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C144" s="4">
+        <v>13670.0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="B145" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C145" s="4">
+        <v>29010.0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="B146" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" s="4">
+        <v>10020.0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="B147" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C147" s="4">
+        <v>4620.0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="B148" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C148" s="4">
+        <v>19670.0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="B149" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149" s="4">
+        <v>7350.0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="B150" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" s="4">
+        <v>12790.0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="B151" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151" s="4">
+        <v>8530.0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="B152" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" s="4">
+        <v>3490.0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="B153" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C153" s="4">
+        <v>5940.0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="B154" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" s="4">
+        <v>6550.0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="B155" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C155" s="4">
+        <v>4080.0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="B156" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" s="4">
+        <v>5040.0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="B157" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C157" s="4">
+        <v>3130.0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="B158" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="4">
+        <v>5100.0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="B159" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C159" s="4">
+        <v>9490.0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="B160" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C160" s="4">
+        <v>5660.0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="B161" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" s="4">
+        <v>5870.0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="B162" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" s="4">
+        <v>650.0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="B163" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C163" s="4">
+        <v>4370.0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="B164" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C164" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="B165" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C165" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="B166" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C166" s="4">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.5" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
